--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101171.5497759903</v>
+        <v>101171.5497759904</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>9555950.05212171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>23831582.67634743</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053969.636952467</v>
+        <v>3352824.452733761</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8052,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8289,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8526,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8763,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8845,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,34 +9000,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9082,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9237,34 +9237,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9319,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9556,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9793,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10659,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11452,28 +11452,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22568,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22644,34 +22644,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22726,28 +22726,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22805,31 +22805,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22881,34 +22881,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23042,31 +23042,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23118,34 +23118,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23200,28 +23200,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23279,31 +23279,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23355,34 +23355,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23437,28 +23437,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23516,31 +23516,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23592,34 +23592,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23674,28 +23674,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23829,34 +23829,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23911,28 +23911,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23990,31 +23990,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24066,13 +24066,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>61.18167021676314</v>
@@ -24087,13 +24087,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24148,28 +24148,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24227,31 +24227,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24303,16 +24303,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>51.84373129681028</v>
@@ -24321,16 +24321,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24385,28 +24385,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24464,31 +24464,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24540,34 +24540,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24622,28 +24622,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24701,31 +24701,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24777,34 +24777,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24859,28 +24859,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -25014,16 +25014,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>51.84373129681028</v>
@@ -25035,13 +25035,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25096,7 +25096,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>94.30397654773019</v>
@@ -25108,16 +25108,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25175,10 +25175,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>130.6648563030561</v>
@@ -25193,13 +25193,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25251,34 +25251,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25333,28 +25333,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25412,7 +25412,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25433,10 +25433,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25488,16 +25488,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>51.84373129681028</v>
@@ -25509,13 +25509,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25570,28 +25570,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25649,7 +25649,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25725,7 +25725,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>93.17061249236157</v>
@@ -25752,7 +25752,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25807,25 +25807,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>126.4887893424616</v>
@@ -25886,7 +25886,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25910,7 +25910,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -26044,28 +26044,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.294591680169105e-12</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.294591680169105e-12</v>
+        <v>339287.2723148487</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.294591680169105e-12</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>121466.6595510332</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>121466.6595510332</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>121466.6595510332</v>
+        <v>193452.2437002849</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>121466.6595510332</v>
+        <v>298994.589226963</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121466.6595510332</v>
+        <v>295030.8229393954</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121466.6595510332</v>
+        <v>328028.6226149915</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121466.6595510332</v>
+        <v>303436.6065673059</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121466.6595510332</v>
+        <v>166776.97472763</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121466.6595510332</v>
+        <v>270490.7525926727</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121466.6595510332</v>
+        <v>229895.3679289419</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121466.6595510332</v>
+        <v>163692.0836238459</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121466.6595510332</v>
+        <v>171635.3838793036</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>118258.146084591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>106633.1427275239</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>118258.146084591</v>
       </c>
       <c r="E2" t="n">
-        <v>55672.21896089023</v>
+        <v>125752.60296485</v>
       </c>
       <c r="F2" t="n">
-        <v>55672.21896089023</v>
+        <v>125752.60296485</v>
       </c>
       <c r="G2" t="n">
-        <v>55672.21896089023</v>
+        <v>78296.25969351221</v>
       </c>
       <c r="H2" t="n">
-        <v>55672.21896089023</v>
+        <v>111466.7111447539</v>
       </c>
       <c r="I2" t="n">
-        <v>55672.21896089023</v>
+        <v>110220.9560258041</v>
       </c>
       <c r="J2" t="n">
-        <v>55672.21896089023</v>
+        <v>120591.6930667057</v>
       </c>
       <c r="K2" t="n">
-        <v>55672.21896089023</v>
+        <v>112862.7737374331</v>
       </c>
       <c r="L2" t="n">
-        <v>55672.21896089023</v>
+        <v>69912.60373067782</v>
       </c>
       <c r="M2" t="n">
-        <v>55672.21896089023</v>
+        <v>102508.3624882626</v>
       </c>
       <c r="N2" t="n">
-        <v>55672.21896089023</v>
+        <v>89749.81302251873</v>
       </c>
       <c r="O2" t="n">
-        <v>55672.21896089023</v>
+        <v>68943.06652663139</v>
       </c>
       <c r="P2" t="n">
-        <v>55672.21896089023</v>
+        <v>71439.53232120381</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>118258.146084591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>106633.1427275239</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>118258.146084591</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22624.04073262199</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>55794.49218386371</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54548.73706491387</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>64919.47410581547</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>57190.55477654288</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>14240.38476978759</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46836.14352737243</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>34077.59406162849</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13270.84756574117</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>15767.31336031358</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999997</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>-81039.39314411815</v>
+        <v>-81039.39314411809</v>
       </c>
       <c r="F6" t="n">
-        <v>52060.6068558819</v>
+        <v>52060.60685588191</v>
       </c>
       <c r="G6" t="n">
         <v>52060.6068558819</v>
       </c>
       <c r="H6" t="n">
-        <v>52060.6068558819</v>
+        <v>52060.60685588189</v>
       </c>
       <c r="I6" t="n">
-        <v>52060.6068558819</v>
+        <v>52060.60685588191</v>
       </c>
       <c r="J6" t="n">
         <v>52060.6068558819</v>
       </c>
       <c r="K6" t="n">
-        <v>52060.6068558819</v>
+        <v>52060.60685588189</v>
       </c>
       <c r="L6" t="n">
-        <v>52060.6068558819</v>
+        <v>52060.60685588191</v>
       </c>
       <c r="M6" t="n">
         <v>52060.6068558819</v>
       </c>
       <c r="N6" t="n">
-        <v>52060.6068558819</v>
+        <v>52060.60685588192</v>
       </c>
       <c r="O6" t="n">
         <v>52060.6068558819</v>
       </c>
       <c r="P6" t="n">
-        <v>52060.6068558819</v>
+        <v>52060.60685588191</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101171.5497759904</v>
+        <v>114897.9079134085</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9555950.05212171</v>
+        <v>9899813.220384382</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23831582.67634743</v>
+        <v>24175445.8446101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3352824.452733761</v>
+        <v>3174211.995162956</v>
       </c>
     </row>
     <row r="11">
@@ -8696,16 +8698,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>150.3839754851235</v>
@@ -8769,22 +8771,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9483,22 +9485,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9571,7 +9573,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
         <v>101.5955875616828</v>
@@ -9641,13 +9643,13 @@
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -9656,7 +9658,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,10 +9719,10 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,13 +9798,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
@@ -9881,13 +9883,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
@@ -9957,7 +9959,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>51.84373129681028</v>
@@ -10112,22 +10114,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10194,16 +10196,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>65.92768427608706</v>
@@ -10434,19 +10436,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>135.370731907559</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10665,7 +10667,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>61.18167021676314</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10920,7 +10922,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11233,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11461,7 +11463,7 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
         <v>81.96869489115805</v>
@@ -23288,16 +23290,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23361,22 +23363,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23990,7 +23992,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
@@ -24075,22 +24077,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24163,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -24233,13 +24235,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24309,10 +24311,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
         <v>51.84373129681028</v>
@@ -24321,13 +24323,13 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24388,13 +24390,13 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24473,13 +24475,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -24549,7 +24551,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24704,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24786,16 +24788,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -25026,19 +25028,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25102,16 +25104,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25175,7 +25177,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25193,7 +25195,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25257,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25266,7 +25268,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
@@ -25275,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25412,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25433,7 +25435,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25512,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25649,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25670,7 +25672,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>173.7492132756177</v>
@@ -25728,7 +25730,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25740,13 +25742,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
@@ -25825,10 +25827,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25886,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25910,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25965,7 +25967,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -26053,7 +26055,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>344449.6995636324</v>
+        <v>269836.2129649645</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>298994.589226963</v>
+        <v>303355.2203764586</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295030.8229393954</v>
+        <v>275568.0526619232</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>328028.6226149915</v>
+        <v>308710.229317078</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>303436.6065673059</v>
+        <v>248096.9824119576</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>166776.97472763</v>
+        <v>182479.9965294237</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>270490.7525926727</v>
+        <v>218437.33178707</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>229895.3679289419</v>
+        <v>184589.8979288428</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163692.0836238459</v>
+        <v>184735.9105859212</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>171635.3838793036</v>
+        <v>155916.8513171685</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>118258.146084591</v>
       </c>
       <c r="E2" t="n">
-        <v>125752.60296485</v>
+        <v>102302.6500338401</v>
       </c>
       <c r="F2" t="n">
         <v>125752.60296485</v>
@@ -26329,31 +26331,31 @@
         <v>78296.25969351221</v>
       </c>
       <c r="H2" t="n">
-        <v>111466.7111447539</v>
+        <v>112837.1952203097</v>
       </c>
       <c r="I2" t="n">
-        <v>110220.9560258041</v>
+        <v>104104.08536717</v>
       </c>
       <c r="J2" t="n">
-        <v>120591.6930667057</v>
+        <v>114520.1980302186</v>
       </c>
       <c r="K2" t="n">
-        <v>112862.7737374331</v>
+        <v>95470.32043146653</v>
       </c>
       <c r="L2" t="n">
-        <v>69912.60373067782</v>
+        <v>74847.83915409872</v>
       </c>
       <c r="M2" t="n">
-        <v>102508.3624882626</v>
+        <v>86148.71594935899</v>
       </c>
       <c r="N2" t="n">
-        <v>89749.81302251873</v>
+        <v>75510.95102248754</v>
       </c>
       <c r="O2" t="n">
-        <v>68943.06652663139</v>
+        <v>75556.84071471218</v>
       </c>
       <c r="P2" t="n">
-        <v>71439.53232120381</v>
+        <v>66499.4220873899</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>118258.146084591</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>46630.43107294988</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
         <v>22624.04073262199</v>
       </c>
       <c r="H4" t="n">
-        <v>55794.49218386371</v>
+        <v>57164.97625941943</v>
       </c>
       <c r="I4" t="n">
-        <v>54548.73706491387</v>
+        <v>48431.86640627978</v>
       </c>
       <c r="J4" t="n">
-        <v>64919.47410581547</v>
+        <v>58847.97906932841</v>
       </c>
       <c r="K4" t="n">
-        <v>57190.55477654288</v>
+        <v>39798.10147057629</v>
       </c>
       <c r="L4" t="n">
-        <v>14240.38476978759</v>
+        <v>19175.62019320849</v>
       </c>
       <c r="M4" t="n">
-        <v>46836.14352737243</v>
+        <v>30476.49698846875</v>
       </c>
       <c r="N4" t="n">
-        <v>34077.59406162849</v>
+        <v>19838.73206159731</v>
       </c>
       <c r="O4" t="n">
-        <v>13270.84756574117</v>
+        <v>19884.62175382196</v>
       </c>
       <c r="P4" t="n">
-        <v>15767.31336031358</v>
+        <v>10827.20312649967</v>
       </c>
     </row>
     <row r="5">
@@ -26528,40 +26530,40 @@
         <v>-33627.59999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>-81039.39314411809</v>
+        <v>-81039.39314411815</v>
       </c>
       <c r="F6" t="n">
-        <v>52060.60685588191</v>
+        <v>52060.60685588192</v>
       </c>
       <c r="G6" t="n">
         <v>52060.6068558819</v>
       </c>
       <c r="H6" t="n">
-        <v>52060.60685588189</v>
+        <v>52060.6068558819</v>
       </c>
       <c r="I6" t="n">
-        <v>52060.60685588191</v>
+        <v>52060.6068558819</v>
       </c>
       <c r="J6" t="n">
         <v>52060.6068558819</v>
       </c>
       <c r="K6" t="n">
-        <v>52060.60685588189</v>
+        <v>52060.60685588192</v>
       </c>
       <c r="L6" t="n">
         <v>52060.60685588191</v>
       </c>
       <c r="M6" t="n">
+        <v>52060.60685588192</v>
+      </c>
+      <c r="N6" t="n">
         <v>52060.6068558819</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>52060.60685588189</v>
+      </c>
+      <c r="P6" t="n">
         <v>52060.60685588192</v>
-      </c>
-      <c r="O6" t="n">
-        <v>52060.6068558819</v>
-      </c>
-      <c r="P6" t="n">
-        <v>52060.60685588191</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114897.9079134085</v>
+        <v>-3215.051958642056</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9899813.220384382</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24175445.8446101</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3174211.995162956</v>
+        <v>6167514.874936002</v>
       </c>
     </row>
     <row r="11">
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
         <v>150.3839754851235</v>
@@ -8771,22 +8771,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
         <v>130.6648563030561</v>
@@ -9497,7 +9497,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
         <v>94.49434172313325</v>
@@ -9643,13 +9643,13 @@
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -9722,22 +9722,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,13 +9798,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
         <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
         <v>81.96869489115805</v>
@@ -9883,10 +9883,10 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
@@ -9959,7 +9959,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
         <v>51.84373129681028</v>
@@ -10114,22 +10114,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10199,13 +10199,13 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
         <v>65.92768427608706</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10667,25 +10667,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10910,19 +10910,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
         <v>38.66169381481656</v>
@@ -11159,7 +11159,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11232,10 +11232,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,34 +23178,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23290,16 +23290,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23363,22 +23363,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23755,31 +23755,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23992,10 +23992,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24089,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -24235,13 +24235,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -24314,22 +24314,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24390,13 +24390,13 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24475,10 +24475,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -24551,7 +24551,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24706,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24791,13 +24791,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -24940,31 +24940,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25101,7 +25101,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25177,25 +25177,25 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25259,25 +25259,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25414,28 +25414,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25502,19 +25502,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25651,31 +25651,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25733,13 +25733,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25888,31 +25888,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25964,34 +25964,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>376275.9193600624</v>
+        <v>1101389.752545038</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>339287.2723148487</v>
+        <v>1101389.752545038</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>376275.9193600624</v>
+        <v>1101389.752545038</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>269836.2129649645</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>193452.2437002849</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>303355.2203764586</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>275568.0526619232</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>308710.229317078</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>248096.9824119576</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182479.9965294237</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>218437.33178707</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184589.8979288428</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184735.9105859212</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155916.8513171685</v>
+        <v>344449.6995636324</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
-        <v>106633.1427275239</v>
+        <v>450601.9862943712</v>
       </c>
       <c r="D2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="E2" t="n">
-        <v>102302.6500338401</v>
+        <v>125752.60296485</v>
       </c>
       <c r="F2" t="n">
         <v>125752.60296485</v>
       </c>
       <c r="G2" t="n">
-        <v>78296.25969351221</v>
+        <v>125752.60296485</v>
       </c>
       <c r="H2" t="n">
-        <v>112837.1952203097</v>
+        <v>125752.60296485</v>
       </c>
       <c r="I2" t="n">
-        <v>104104.08536717</v>
+        <v>125752.60296485</v>
       </c>
       <c r="J2" t="n">
-        <v>114520.1980302186</v>
+        <v>125752.60296485</v>
       </c>
       <c r="K2" t="n">
-        <v>95470.32043146653</v>
+        <v>125752.60296485</v>
       </c>
       <c r="L2" t="n">
-        <v>74847.83915409872</v>
+        <v>125752.60296485</v>
       </c>
       <c r="M2" t="n">
-        <v>86148.71594935899</v>
+        <v>125752.60296485</v>
       </c>
       <c r="N2" t="n">
-        <v>75510.95102248754</v>
+        <v>125752.60296485</v>
       </c>
       <c r="O2" t="n">
-        <v>75556.84071471218</v>
+        <v>125752.60296485</v>
       </c>
       <c r="P2" t="n">
-        <v>66499.4220873899</v>
+        <v>125752.60296485</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118258.146084591</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>106633.1427275239</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>118258.146084591</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>46630.43107294988</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
         <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>22624.04073262199</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>57164.97625941943</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>48431.86640627978</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>58847.97906932841</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>39798.10147057629</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>19175.62019320849</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>30476.49698846875</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>19838.73206159731</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>19884.62175382196</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>10827.20312649967</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-46220.48058641982</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999997</v>
+        <v>-46220.4805864197</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-46220.48058641982</v>
       </c>
       <c r="E6" t="n">
-        <v>-81039.39314411815</v>
+        <v>-95849.40998323204</v>
       </c>
       <c r="F6" t="n">
-        <v>52060.60685588192</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="G6" t="n">
-        <v>52060.6068558819</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="H6" t="n">
-        <v>52060.6068558819</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="I6" t="n">
-        <v>52060.6068558819</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="J6" t="n">
-        <v>52060.6068558819</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="K6" t="n">
-        <v>52060.60685588192</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="L6" t="n">
-        <v>52060.60685588191</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="M6" t="n">
-        <v>52060.60685588192</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="N6" t="n">
-        <v>52060.6068558819</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="O6" t="n">
-        <v>52060.60685588189</v>
+        <v>37250.59001676801</v>
       </c>
       <c r="P6" t="n">
-        <v>52060.60685588192</v>
+        <v>37250.59001676801</v>
       </c>
     </row>
   </sheetData>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,31 +27615,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,31 +27660,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,34 +27773,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,34 +27815,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,31 +27852,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,34 +28052,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
